--- a/homework/47.xlsx
+++ b/homework/47.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D1EAEF-65A4-4BEF-B409-0789B01E3C3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DE923A-FD07-4DC1-B78F-F69FD0E07A23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="2295" windowWidth="15330" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18705" yWindow="2280" windowWidth="15330" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,29 +15,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>are,looking for</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>what was the film about?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>who did you give the money to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>who did(was) the book write(written) by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>what(who) did you go to (the) cinema with</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46.2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>45.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fell off the shelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who is coming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What made me(you) ill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who took my(you) umbrella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who wants to see (me)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who did you phone?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what happened last night?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who knows the answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who saw the accident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what does this word means</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">who has got you(r) pen </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who did you saw(see)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>what worke you</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> up</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what did Jane (do)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who did (the) washing-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoned your,did she want</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who did you ask,what did he say</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who got married last week? who told you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who gave you a book? What did Catherine give (you)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who won? What do(did) you do after the game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>who did you meet?  What does(did) she told(tell you)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -45,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +153,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -95,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -107,6 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -447,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -463,7 +565,7 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>46.1</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -471,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -479,30 +581,30 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -511,77 +613,157 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" s="1">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="1">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="1">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="1">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="1">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.15">
